--- a/centerpoint/mastertemplate/Centerpoint_master_template/centrepoint_Template and attribute.xlsx
+++ b/centerpoint/mastertemplate/Centerpoint_master_template/centrepoint_Template and attribute.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8247" uniqueCount="2192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8273" uniqueCount="2198">
   <si>
     <t>Template Name</t>
   </si>
@@ -6594,6 +6594,24 @@
   </si>
   <si>
     <t>Guideline Sheet Link</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/presentation/d/1XYzEtytdyVENb2lq7DWJxgioIlUZvuqT/edit?usp=sharing&amp;ouid=112924592379468570341&amp;rtpof=true&amp;sd=true</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/presentation/d/18nsTda_Wl0sCFBjuAlL25VNZA8NzZrgH/edit?usp=sharing&amp;ouid=112924592379468570341&amp;rtpof=true&amp;sd=true</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/presentation/d/1Q8u9zU1m5XEVliBaBb2jr41z-5Ot3oVn/edit?usp=sharing&amp;ouid=112924592379468570341&amp;rtpof=true&amp;sd=true</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/presentation/d/1VQJNXCUY7VFjqLAERK82fiqOPxR3V9tC/edit?usp=sharing&amp;ouid=112924592379468570341&amp;rtpof=true&amp;sd=true</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/presentation/d/1NtEklPhUfACFxOw4MvJj-JNQOdVZDlU7/edit?usp=sharing&amp;ouid=112924592379468570341&amp;rtpof=true&amp;sd=true</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/spreadsheets/d/1pqkyM0B7_4rSyAdkprxJ0Aw13mRilZ9i/edit?usp=sharing&amp;ouid=112924592379468570341&amp;rtpof=true&amp;sd=true</t>
   </si>
 </sst>
 </file>
@@ -6603,7 +6621,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6618,6 +6636,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -6652,17 +6677,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -39409,7 +39440,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -39423,7 +39454,126 @@
         <v>2191</v>
       </c>
     </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>2193</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>2193</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>2193</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>2193</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>2194</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>2196</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>2196</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>2197</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B8" r:id="rId7"/>
+    <hyperlink ref="B9" r:id="rId8"/>
+    <hyperlink ref="B10" r:id="rId9"/>
+    <hyperlink ref="B11" r:id="rId10"/>
+    <hyperlink ref="B12" r:id="rId11"/>
+    <hyperlink ref="B13" r:id="rId12"/>
+    <hyperlink ref="B14" r:id="rId13"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>